--- a/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_35_6.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_35_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9252708973624164</v>
+        <v>0.9870382744028106</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6984262512700321</v>
+        <v>0.7703294593545024</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2982318180261214</v>
+        <v>0.998095659112241</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9277447448815027</v>
+        <v>0.6637273528399816</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8631595123304557</v>
+        <v>0.949798658276235</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4997138534333993</v>
+        <v>0.08667511875166423</v>
       </c>
       <c r="H2" t="n">
-        <v>2.016625046376724</v>
+        <v>1.535807962832042</v>
       </c>
       <c r="I2" t="n">
-        <v>1.457026956612907</v>
+        <v>0.009466177153296149</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6044783768962166</v>
+        <v>0.2822332896033704</v>
       </c>
       <c r="K2" t="n">
-        <v>1.030753074272787</v>
+        <v>0.1458496984924254</v>
       </c>
       <c r="L2" t="n">
-        <v>1.418190383772146</v>
+        <v>0.7321936528822303</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7069044160517031</v>
+        <v>0.2944063836802188</v>
       </c>
       <c r="N2" t="n">
-        <v>1.01645411434222</v>
+        <v>1.006348600292501</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7369988005368973</v>
+        <v>0.3069398729387158</v>
       </c>
       <c r="P2" t="n">
-        <v>267.3874392750307</v>
+        <v>150.8911768346644</v>
       </c>
       <c r="Q2" t="n">
-        <v>429.4979239825014</v>
+        <v>239.8691120500431</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9257117254322507</v>
+        <v>0.9869606807232307</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6982232088677547</v>
+        <v>0.7693804246599809</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2946529941853502</v>
+        <v>0.9972306392957103</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9269415681717702</v>
+        <v>0.6077684454230439</v>
       </c>
       <c r="F3" t="n">
-        <v>0.862980253993796</v>
+        <v>0.9409757976625545</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4967660341005915</v>
+        <v>0.08719398804430085</v>
       </c>
       <c r="H3" t="n">
-        <v>2.017982791855677</v>
+        <v>1.54215416220421</v>
       </c>
       <c r="I3" t="n">
-        <v>1.453010383658393</v>
+        <v>0.01376605375470941</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6111976522356193</v>
+        <v>0.3291995434937062</v>
       </c>
       <c r="K3" t="n">
-        <v>1.032103340445817</v>
+        <v>0.1714827098056835</v>
       </c>
       <c r="L3" t="n">
-        <v>1.408117895035901</v>
+        <v>0.7945076729858926</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7048163123116487</v>
+        <v>0.2952862815037313</v>
       </c>
       <c r="N3" t="n">
-        <v>1.016357051280972</v>
+        <v>1.00638660536005</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7348218018976582</v>
+        <v>0.3078572298342148</v>
       </c>
       <c r="P3" t="n">
-        <v>267.3992722401258</v>
+        <v>150.8792397897801</v>
       </c>
       <c r="Q3" t="n">
-        <v>429.5097569475965</v>
+        <v>239.8571750051588</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9261406605085025</v>
+        <v>0.9867144990372845</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6980173444568587</v>
+        <v>0.7683992268939699</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2911761346654824</v>
+        <v>0.9964587610144899</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9261428183796679</v>
+        <v>0.5539447991220124</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8627956597497969</v>
+        <v>0.9325409543448507</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4938977432706307</v>
+        <v>0.088840206111786</v>
       </c>
       <c r="H4" t="n">
-        <v>2.019359408119258</v>
+        <v>1.548715436183525</v>
       </c>
       <c r="I4" t="n">
-        <v>1.449108246941003</v>
+        <v>0.01760293852559322</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6178798925388936</v>
+        <v>0.3743736749084439</v>
       </c>
       <c r="K4" t="n">
-        <v>1.033493799422802</v>
+        <v>0.1959884164755822</v>
       </c>
       <c r="L4" t="n">
-        <v>1.398118131932119</v>
+        <v>0.8411279780964144</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7027785876580409</v>
+        <v>0.2980607423190548</v>
       </c>
       <c r="N4" t="n">
-        <v>1.016262606860513</v>
+        <v>1.006507184145004</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7326973270868749</v>
+        <v>0.3107498051903723</v>
       </c>
       <c r="P4" t="n">
-        <v>267.410853561298</v>
+        <v>150.84183191985</v>
       </c>
       <c r="Q4" t="n">
-        <v>429.5213382687687</v>
+        <v>239.8197671352286</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9265581823709358</v>
+        <v>0.9863608068411356</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6978088455113443</v>
+        <v>0.767430609886078</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2877953012533567</v>
+        <v>0.9958002253560799</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9253492099010729</v>
+        <v>0.5030099163722772</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8626067849724258</v>
+        <v>0.9246204638882431</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4911057726540277</v>
+        <v>0.09120534745603623</v>
       </c>
       <c r="H5" t="n">
-        <v>2.020753641527962</v>
+        <v>1.55519258257537</v>
       </c>
       <c r="I5" t="n">
-        <v>1.445313881906279</v>
+        <v>0.02087641505720683</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6245191212599798</v>
+        <v>0.4171232700224914</v>
       </c>
       <c r="K5" t="n">
-        <v>1.03491650158313</v>
+        <v>0.2189997764381285</v>
       </c>
       <c r="L5" t="n">
-        <v>1.388181797944845</v>
+        <v>0.8753172204362804</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7007893925096381</v>
+        <v>0.3020022308792374</v>
       </c>
       <c r="N5" t="n">
-        <v>1.016170675441262</v>
+        <v>1.006680421139036</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7306234477828029</v>
+        <v>0.314859091078568</v>
       </c>
       <c r="P5" t="n">
-        <v>267.4221915029344</v>
+        <v>150.7892834984688</v>
       </c>
       <c r="Q5" t="n">
-        <v>429.532676210405</v>
+        <v>239.7672187138475</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9269641853270382</v>
+        <v>0.9859417679226843</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6975977942681797</v>
+        <v>0.7664986691079265</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2845173222706545</v>
+        <v>0.9952493981249267</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9245603481228161</v>
+        <v>0.4553518095283402</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8624130088039502</v>
+        <v>0.9172652914872629</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4883908290170996</v>
+        <v>0.09400746263321708</v>
       </c>
       <c r="H6" t="n">
-        <v>2.022164942162806</v>
+        <v>1.561424474850061</v>
       </c>
       <c r="I6" t="n">
-        <v>1.441634952092135</v>
+        <v>0.02361449004392402</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6311186396830226</v>
+        <v>0.4571226704626723</v>
       </c>
       <c r="K6" t="n">
-        <v>1.036376123547203</v>
+        <v>0.2403687207772188</v>
       </c>
       <c r="L6" t="n">
-        <v>1.378326531751231</v>
+        <v>0.9001354726770039</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6988496469320848</v>
+        <v>0.306606364306446</v>
       </c>
       <c r="N6" t="n">
-        <v>1.016081280294964</v>
+        <v>1.00688566469093</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7286011232201862</v>
+        <v>0.3196592319976429</v>
       </c>
       <c r="P6" t="n">
-        <v>267.4332786290563</v>
+        <v>150.7287622202965</v>
       </c>
       <c r="Q6" t="n">
-        <v>429.543763336527</v>
+        <v>239.7066974356752</v>
       </c>
     </row>
     <row r="7">
@@ -797,162 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9273592728245895</v>
+        <v>0.9854863331085026</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6973843694949603</v>
+        <v>0.7656156422533812</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2813334664443441</v>
+        <v>0.9947914756831227</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9237766582563767</v>
+        <v>0.4111043393732258</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8622149141732036</v>
+        <v>0.91048238440185</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4857488771017631</v>
+        <v>0.09705295733273384</v>
       </c>
       <c r="H7" t="n">
-        <v>2.023592114604054</v>
+        <v>1.567329279492371</v>
       </c>
       <c r="I7" t="n">
-        <v>1.438061658247006</v>
+        <v>0.02589075002681393</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6376748905422637</v>
+        <v>0.494259527010396</v>
       </c>
       <c r="K7" t="n">
-        <v>1.037868274394635</v>
+        <v>0.2600750656544769</v>
       </c>
       <c r="L7" t="n">
-        <v>1.368530800110439</v>
+        <v>0.917984071898845</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6969568688963207</v>
+        <v>0.311533236321157</v>
       </c>
       <c r="N7" t="n">
-        <v>1.015994288552384</v>
+        <v>1.007108734803999</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7266277657048489</v>
+        <v>0.3247958511540512</v>
       </c>
       <c r="P7" t="n">
-        <v>267.4441270048132</v>
+        <v>150.6649969951448</v>
       </c>
       <c r="Q7" t="n">
-        <v>429.5546117122839</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>model_35_6_6</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9277434950748026</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6971688352239681</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.2782455871803944</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.9229980531529504</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.8620125113490873</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.4831795811454074</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.025033393266623</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.434596080478945</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.644188602913639</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.039392876774767</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.358814358232813</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.6951112005610378</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.015909689157842</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.7247035234474729</v>
-      </c>
-      <c r="P8" t="n">
-        <v>267.4547337816355</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>429.5652184891061</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>model_35_6_7</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9281170890775374</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6969511710951792</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-0.2752533573391394</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.9222248250480547</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.8618061108354436</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.4806813563288772</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.026488914298086</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.431237851633715</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6506573319915634</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.040947591812639</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.34916319064447</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.6933118752256283</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.015827429927882</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.7228275971074181</v>
-      </c>
-      <c r="P9" t="n">
-        <v>267.4651013785105</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>429.5755860859812</v>
+        <v>239.6429322105234</v>
       </c>
     </row>
   </sheetData>
